--- a/kubera/src/test/resources/excel/kubera-template.xlsx
+++ b/kubera/src/test/resources/excel/kubera-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\dyamada-jaki\kubera\kubera\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28F516B-67ED-4C71-B1B4-8174B232A65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7666B46-923C-4198-B186-39690C6616D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6590" yWindow="1060" windowWidth="25600" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>テストケース開始セル位置</t>
     <rPh sb="6" eb="8">
@@ -144,6 +144,44 @@
   </si>
   <si>
     <t>B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switchTo</t>
+  </si>
+  <si>
+    <t>捜査対象のウィンドウ/タブを[宿泊プラン一覧 | HOTEL PLANISPHERE - テスト自動化練習サイト]に切り替える</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>宿泊プラン一覧 | HOTEL PLANISPHERE - テスト自動化練習サイト</t>
+  </si>
+  <si>
+    <t>[プラン名]を確認する</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assertText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plan-name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お得な特典付きプラン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -543,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9DA8B9-C43A-4D9E-A537-C5F946F432CA}">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -635,6 +673,40 @@
       </c>
       <c r="G6" s="9" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="9" customFormat="1">
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/kubera/src/test/resources/excel/kubera-template.xlsx
+++ b/kubera/src/test/resources/excel/kubera-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\dyamada-jaki\kubera\kubera\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7666B46-923C-4198-B186-39690C6616D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA943B0F-3891-4CB2-8266-CECF6B577F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6590" yWindow="1060" windowWidth="25600" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>テストケース開始セル位置</t>
     <rPh sb="6" eb="8">
@@ -183,13 +183,16 @@
   <si>
     <t>お得な特典付きプラン</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿泊予約 | HOTEL PLANISPHERE - テスト自動化練習サイト</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +231,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +257,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -262,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -295,6 +309,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -581,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9DA8B9-C43A-4D9E-A537-C5F946F432CA}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -655,57 +670,67 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="9" customFormat="1">
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>19</v>
+    <row r="6" spans="2:7" s="12" customFormat="1" ht="14.5">
+      <c r="C6" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="9" customFormat="1">
       <c r="B7" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:7" s="9" customFormat="1">
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="12" customFormat="1" ht="14.5">
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>29</v>
       </c>
     </row>

--- a/kubera/src/test/resources/excel/kubera-template.xlsx
+++ b/kubera/src/test/resources/excel/kubera-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\dyamada-jaki\kubera\kubera\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA943B0F-3891-4CB2-8266-CECF6B577F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA119AC8-782E-46A0-9A87-B088960C789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6590" yWindow="1060" windowWidth="25600" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1210" yWindow="820" windowWidth="36560" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
   <si>
     <t>テストケース開始セル位置</t>
     <rPh sb="6" eb="8">
@@ -63,21 +63,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実行対象</t>
-    <rPh sb="0" eb="4">
-      <t>ジッコウタイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TestCase</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストケース内容</t>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -186,13 +172,310 @@
   </si>
   <si>
     <t>宿泊予約 | HOTEL PLANISPHERE - テスト自動化練習サイト</t>
+  </si>
+  <si>
+    <t>宿泊予約確認 | HOTEL PLANISPHERE - テスト自動化練習サイト</t>
+  </si>
+  <si>
+    <t>assertNumber</t>
+  </si>
+  <si>
+    <t>[宿泊数 必須]の値を確認する</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>[人数 必須]の値を確認する</t>
+  </si>
+  <si>
+    <t>head-count</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキップ対象</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>‘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿泊予約画面の初期表示でデフォルト設定される値が正しいこと</t>
+    <rPh sb="0" eb="6">
+      <t>シュクハクヨヤクガメン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿泊予約画面で何も入力せずに確認ボタンを押すと必須エラーが発生すること</t>
+    <rPh sb="0" eb="6">
+      <t>シュクハクヨヤクガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css_selector</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clickButton</t>
+  </si>
+  <si>
+    <t>[予約内容を確認する]をクリックする</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>submit-button</t>
+  </si>
+  <si>
+    <t>input[name="username"] ~ div</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このフィールドを入力してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]のエラーメッセージを確認する</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[画面のタイトル]のエラーメッセージを確認する</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h2.my-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿泊予約確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿泊予約画面でエラーの内容に入力したのちに確認ボタンを押すと確認画面に遷移すること</t>
+    <rPh sb="0" eb="6">
+      <t>シュクハクヨヤクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inputTextbox</t>
+  </si>
+  <si>
+    <t>[氏名 必須]に値を入力する</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>inputSelect</t>
+  </si>
+  <si>
+    <t>[確認のご連絡 必須]の値を選択する</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>Hotel Taro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿泊予約確認画面の初期表示で前画面の入力値が表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>マエガメン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[人数]を確認する</t>
+    <rPh sb="1" eb="3">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>head-count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1名様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[追加プラン]を確認する</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[氏名]を確認する</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hotel Taro様</t>
+    <rPh sb="10" eb="11">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[確認のご連絡]を確認する</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望しない</t>
+    <rPh sb="0" eb="2">
+      <t>キボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[コメント]を確認する</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +520,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -276,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -286,30 +574,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -596,142 +894,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9DA8B9-C43A-4D9E-A537-C5F946F432CA}">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="6"/>
-    <col min="2" max="2" width="2.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.4140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.9140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="6"/>
+    <col min="1" max="1" width="8.6640625" style="5"/>
+    <col min="2" max="2" width="10.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="43.9140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.08203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="43.9140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.83203125" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:11" ht="36">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="13" customFormat="1" ht="14.5">
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="14" customFormat="1">
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="12" customFormat="1" ht="14.5">
-      <c r="C6" s="12" t="s">
+      <c r="D7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="14" customFormat="1" ht="54">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="13" customFormat="1" ht="14.5">
+      <c r="C9" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" s="9" customFormat="1">
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="14" customFormat="1">
+      <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="14" customFormat="1">
+      <c r="B12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="4" customFormat="1">
+      <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="4" customFormat="1">
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="4" customFormat="1">
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" s="9" customFormat="1">
-      <c r="B8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="J15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="12" customFormat="1" ht="14.5">
-      <c r="C9" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="15" customFormat="1" ht="14.5">
+      <c r="C17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>29</v>
+      <c r="E19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -742,6 +1313,10 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{57FE7E2D-DD41-43BA-A5BA-FBEDA04022EC}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{26E1E008-6CB0-4B8C-865C-0E939842D080}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{45E0F0C2-E7B7-4CE4-9343-EAD4CE4409B8}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{53AB992F-442D-4E63-B067-BF79F5284FDB}"/>
+    <hyperlink ref="K5" r:id="rId5" xr:uid="{8D22E7A1-7E34-42E1-A1CB-557A7B69402C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -771,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/kubera/src/test/resources/excel/kubera-template.xlsx
+++ b/kubera/src/test/resources/excel/kubera-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\github\dyamada-jaki\kubera\kubera\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaki/Documents/develop/kubera/kubera/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA119AC8-782E-46A0-9A87-B088960C789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ACE2A3-6208-0642-BF7C-40A53982AB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1210" yWindow="820" windowWidth="36560" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="2" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>switchTo</t>
   </si>
   <si>
-    <t>捜査対象のウィンドウ/タブを[宿泊プラン一覧 | HOTEL PLANISPHERE - テスト自動化練習サイト]に切り替える</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -469,13 +466,16 @@
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作対象のウィンドウ/タブを[宿泊予約 | HOTEL PLANISPHERE - テスト自動化練習サイト]に切り替える</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,14 +582,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -605,7 +599,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -897,412 +897,412 @@
   <dimension ref="B2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="5"/>
     <col min="2" max="2" width="10.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="37.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.4140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="43.9140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.08203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="43.9140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="43.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45" style="5" customWidth="1"/>
+    <col min="10" max="10" width="43.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.83203125" style="5" customWidth="1"/>
     <col min="12" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="36">
+    <row r="2" spans="2:11" ht="36" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="J2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="C3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="13" customFormat="1" ht="14.5">
-      <c r="C6" s="13" t="s">
+    <row r="6" spans="2:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" s="14" customFormat="1">
-      <c r="B7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="K15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" s="14" customFormat="1" ht="54">
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="13" customFormat="1" ht="14.5">
-      <c r="C9" s="13" t="s">
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C17" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="5" t="s">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="14" customFormat="1">
-      <c r="B11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" s="14" customFormat="1">
-      <c r="B12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" s="4" customFormat="1">
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" s="4" customFormat="1">
-      <c r="B14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" s="4" customFormat="1">
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="15" customFormat="1" ht="14.5">
-      <c r="C17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="5" t="s">
+      <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="5" t="s">
+      <c r="E21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="5" t="s">
+      <c r="E22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="E23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1330,18 +1330,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
